--- a/biology/Botanique/Distimake_macrocalyx/Distimake_macrocalyx.xlsx
+++ b/biology/Botanique/Distimake_macrocalyx/Distimake_macrocalyx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Distimake macrocalyx est une espèce de plantes de la famille des Convolvulaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Distimake macrocalyx est présente dans le nord-est de l’Argentine, en Bolivie, au Brésil, en Colombie, en République dominicaine, en Équateur, en Guyane, au Guyana, au Nicaragua, au Paraguay, au Pérou, au Suriname, à Trinité-et-Tobago et au Venezuela[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Distimake macrocalyx est présente dans le nord-est de l’Argentine, en Bolivie, au Brésil, en Colombie, en République dominicaine, en Équateur, en Guyane, au Guyana, au Nicaragua, au Paraguay, au Pérou, au Suriname, à Trinité-et-Tobago et au Venezuela.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante pour le synonyme Convolvulus glaber Aublet[3] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante pour le synonyme Convolvulus glaber Aublet : 
 « Convolvulus (glaber). pentaphyllos, flore magno ; albo. (Tabula 53.)
 Planta perennis. Radix crassa, tortuosa, repens. Caules plures, volubiles, suprà arbores sparsi. Folia alterna, digitata, FOLIOLIS quinis, inæqualibus, lanceolatis, acutis, glabris, integerrimis, longo petiolo annexis. Flores racemosi, axillares, singuli longis pedunculis insidentes. Calix ; perianthium monophyllum, quinquepartitum ; laciniis oblongis, ovatis, acutis, glabris, rigidis. Corolla monopetala, alba, campani-formis, receptaculo pistilli inserta ; tubus longus, ad faucem ampliatus ; limbus quinquefidus, lobis subrotundis. Stamina ; filamenca quinque, parte infimâ latiora &amp; villosa, tubo corollæ versùs basim inserta. Antheræ oblongæ, biloculares. Pistillum ; germen subrotundum, disco circumdatum. Stylus longus. Stigma oblongum, bilamellatum &amp; cuspidatum. Pericarpium; capsula subrotunda, calice ampliato, non deciduo inclusa, quadrilocularis, quadrivalvis. Semina solitaria, angulata, nigra, extùs convcxa.
 Partes quælibet hujus plants vulneratas lacteum succum fundunt.
@@ -586,9 +602,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Distimake macrocalyx a pour synonymes selon World Checklist of Selected Plant Families (WCSP)                (22 février 2021)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Distimake macrocalyx a pour synonymes selon World Checklist of Selected Plant Families (WCSP)                (22 février 2021) :
 synonymes homotypiques :
 Convolvulus macrocalyx Ruiz &amp; Pav. 1799 (basionyme)
 Ipomoea macrocalyx (Ruiz &amp; Pav.) Choisy in A.P.de Candolle 1845
